--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Николай Костин.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Николай Костин.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Сотрудник Николай Костин: 0,0 руб.</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
   </x:si>
   <x:si>
@@ -80,11 +83,19 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -121,16 +132,23 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -433,7 +451,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S1"/>
+  <x:dimension ref="A1:S2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -446,59 +464,64 @@
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+    </x:row>
+    <x:row r="2" spans="1:19">
+      <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="F2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="G2" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="1" t="s">
+      <x:c r="H2" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="I2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="J2" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+      <x:c r="K2" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="1" t="s">
+      <x:c r="L2" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="1" t="s">
+      <x:c r="M2" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="1" t="s">
+      <x:c r="N2" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="1" t="s">
+      <x:c r="O2" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="1" t="s">
+      <x:c r="P2" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="1" t="s">
+      <x:c r="Q2" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="1" t="s">
+      <x:c r="R2" s="2" t="s">
         <x:v>18</x:v>
+      </x:c>
+      <x:c r="S2" s="2" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
